--- a/biology/Biologie cellulaire et moléculaire/Parakaryon_myojinensis/Parakaryon_myojinensis.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Parakaryon_myojinensis/Parakaryon_myojinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Parakaryon est un genre d'organismes cellulaires. Le taxon n'a pu être attribué à un domaine et est donc classé parmi les Cytota incertae sedis. Il s'agit d'organismes partageant des caractéristiques de cellules procaryotes et eucaryotes. Si aucune affinité plus forte n'est trouvée, un nouveau nom de domaine pourrait être créer pour classer le genre : Parakaryota.
